--- a/bh3/545682402482343799_2021-07-10_12-06-25.xlsx
+++ b/bh3/545682402482343799_2021-07-10_12-06-25.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -566,10 +582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:07:26</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44388.2968287037</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -641,10 +655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:32</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44387.7524537037</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -723,10 +735,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:41:10</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44387.73692129629</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -798,10 +808,8 @@
           <t>4880746777</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:12:55</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44387.71730324074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -869,10 +877,8 @@
           <t>4880550493</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:38:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44387.69309027777</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -936,10 +942,8 @@
           <t>4879230696</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:34:54</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44387.69090277778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1003,10 +1007,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:16:12</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44387.67791666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1070,10 +1072,8 @@
           <t>4880419892</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:15:39</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44387.67753472222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1137,10 +1137,8 @@
           <t>4880405235</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:11:14</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44387.67446759259</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1204,10 +1202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:59:13</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44387.66612268519</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1271,10 +1267,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:04:53</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44387.6283912037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1343,10 +1337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:04:04</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44387.62782407407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1410,10 +1402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:07:46</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44387.58872685185</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1481,10 +1471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:05:13</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44387.58695601852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1552,10 +1540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:52:38</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44387.57821759259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1623,10 +1609,8 @@
           <t>4879643699</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:46</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.57553240741</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1687,10 +1671,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:26</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.56974537037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1762,10 +1744,8 @@
           <t>4879592520</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:32</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.56912037037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1833,10 +1813,8 @@
           <t>4879577645</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:36:59</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.56734953704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1912,10 +1890,8 @@
           <t>4879544338</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:51</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.56378472222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1987,10 +1963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:09</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.56329861111</v>
       </c>
       <c r="I22" t="n">
         <v>8</v>
@@ -2054,10 +2028,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:10</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.56261574074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2125,10 +2097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:29:28</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.56212962963</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2196,10 +2166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:27:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.56099537037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2275,10 +2243,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:36</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.56013888889</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2354,10 +2320,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:11</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.55984953704</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2429,10 +2393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:24:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.55891203704</v>
       </c>
       <c r="I28" t="n">
         <v>5</v>
@@ -2496,10 +2458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:45</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.54774305555</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2575,10 +2535,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:32</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.54759259259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2650,10 +2608,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:22</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.54469907407</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2717,10 +2673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:01</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.54445601852</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2780,10 +2734,8 @@
           <t>4879355685</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.5422800926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2847,10 +2799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:11</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.54109953704</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2918,10 +2868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:08</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.54037037037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2987,10 +2935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:04</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.54032407407</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3054,10 +3000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:56:54</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.53951388889</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3134,10 +3078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:55:53</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.53880787037</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3209,10 +3151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:41</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.53658564815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3280,10 +3220,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.53592592593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3359,10 +3297,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:50:11</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.53484953703</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3434,10 +3370,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:33</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.53232638889</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3513,10 +3447,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:29</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.53158564815</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3588,10 +3520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:00</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.53125</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3667,10 +3597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:22</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.53081018518</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3734,10 +3662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:14</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.53071759259</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -3813,10 +3739,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:08</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.53064814815</v>
       </c>
       <c r="I47" t="n">
         <v>9</v>
@@ -3888,10 +3812,8 @@
           <t>4879234967</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.53018518518</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3963,10 +3885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:15</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.52934027778</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4038,10 +3958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:50</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.52905092593</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4109,10 +4027,8 @@
           <t>4879230696</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:40</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.52893518518</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4188,10 +4104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:11</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.52859953704</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4263,10 +4177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:56</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.52842592593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4334,10 +4246,8 @@
           <t>4879211614</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:29</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.52741898148</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4415,10 +4325,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:32</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.52675925926</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4494,10 +4402,8 @@
           <t>4879107535</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:21</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.52663194444</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4565,10 +4471,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:00</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.52638888889</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4644,10 +4548,8 @@
           <t>4879196457</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:06</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.52576388889</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4723,10 +4625,8 @@
           <t>4879114914</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:20</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.52453703704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4794,10 +4694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:34:59</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.52429398148</v>
       </c>
       <c r="I60" t="n">
         <v>20</v>
@@ -4873,10 +4771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:56</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.52356481482</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4948,10 +4844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:41</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.52269675926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5028,10 +4922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:38</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.52266203704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5104,10 +4996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:34</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.52261574074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5183,10 +5073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:29</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.52255787037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5254,10 +5142,8 @@
           <t>4879151449</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:03</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.52225694444</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5333,10 +5219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:48</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.52208333334</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5404,10 +5288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:28</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.52185185185</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5471,10 +5353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:21</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.52107638889</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5542,10 +5422,8 @@
           <t>4879151449</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:13</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.5209837963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5605,10 +5483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:44</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.52064814815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5673,10 +5549,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:17</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.5196412037</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5744,10 +5618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:04</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.51949074074</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5811,10 +5683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:38</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.51918981481</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -5882,10 +5752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:37</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.51917824074</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5961,10 +5829,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:34</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.51914351852</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6036,10 +5902,8 @@
           <t>4879119916</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:26</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.51835648148</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6111,10 +5975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:01</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.51806712963</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6190,10 +6052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:27</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.51767361111</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6261,10 +6121,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:16</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.51754629629</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6332,10 +6190,8 @@
           <t>4879114914</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:10</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.51747685186</v>
       </c>
       <c r="I81" t="n">
         <v>13</v>
@@ -6411,10 +6267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:03</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.51739583333</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6490,10 +6344,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:03</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.51739583333</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -6569,10 +6421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:02</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.51738425926</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -6648,10 +6498,8 @@
           <t>4879115827</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:39</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.51711805556</v>
       </c>
       <c r="I85" t="n">
         <v>30</v>
@@ -6727,10 +6575,8 @@
           <t>4879113825</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:39</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.51711805556</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6807,10 +6653,8 @@
           <t>4879113671</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:34</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.51706018519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6886,10 +6730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:09</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.51677083333</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6965,10 +6807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.51675925926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7036,10 +6876,8 @@
           <t>4879108053</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:03</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.51670138889</v>
       </c>
       <c r="I90" t="n">
         <v>54</v>
@@ -7115,10 +6953,8 @@
           <t>4879107535</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.51653935185</v>
       </c>
       <c r="I91" t="n">
         <v>14</v>
@@ -7194,10 +7030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.51628472222</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7273,10 +7107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:10</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.51608796296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7344,10 +7176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.51605324074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7415,10 +7245,8 @@
           <t>4879090201</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.51417824074</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7496,10 +7324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:04</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.51393518518</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7567,10 +7393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.51315972222</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7642,10 +7466,8 @@
           <t>4879076540</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:45</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.51302083334</v>
       </c>
       <c r="I98" t="n">
         <v>6</v>
@@ -7720,10 +7542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:13</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.51265046297</v>
       </c>
       <c r="I99" t="n">
         <v>106</v>
@@ -7787,10 +7607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.51258101852</v>
       </c>
       <c r="I100" t="n">
         <v>27</v>
@@ -7862,10 +7680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:17:36</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.51222222222</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7937,10 +7753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:41</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.51158564815</v>
       </c>
       <c r="I102" t="n">
         <v>8</v>
@@ -8008,10 +7822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:42</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.51090277778</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8079,10 +7891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:33</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.51079861111</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8158,10 +7968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:00</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.51041666666</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8237,10 +8045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:00</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.51041666666</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8304,10 +8110,8 @@
           <t>4879052700</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:58</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.51039351852</v>
       </c>
       <c r="I107" t="n">
         <v>6</v>
@@ -8383,10 +8187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:49</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.51028935185</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8462,10 +8264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:58</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.50969907407</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8525,10 +8325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:37</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.50945601852</v>
       </c>
       <c r="I110" t="n">
         <v>168</v>
@@ -8596,10 +8394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:36</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.50944444445</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8663,10 +8459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:32</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.50939814815</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8738,10 +8532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:29</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.50936342592</v>
       </c>
       <c r="I113" t="n">
         <v>84</v>
@@ -8817,10 +8609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:11</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.50915509259</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8892,10 +8682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:47</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.50887731482</v>
       </c>
       <c r="I115" t="n">
         <v>77</v>
@@ -8963,10 +8751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:38</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.50877314815</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -9042,10 +8828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:07</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.50841435185</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9123,10 +8907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:07</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.50841435185</v>
       </c>
       <c r="I118" t="n">
         <v>245</v>
@@ -9190,10 +8972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:37</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.50806712963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9257,10 +9037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:26</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.50793981482</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9336,10 +9114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:23</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.50721064815</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9415,10 +9191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.50702546296</v>
       </c>
       <c r="I122" t="n">
         <v>484</v>
@@ -9494,10 +9268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:26</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.50655092593</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9561,10 +9333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:00</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.50625</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9640,10 +9410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:45</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.50607638889</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9719,10 +9487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:44</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.50606481481</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9798,10 +9564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:43</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.50605324074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9869,10 +9633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:34</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.50594907408</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9948,10 +9710,8 @@
           <t>4879003049</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:14</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.50571759259</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -10011,10 +9771,8 @@
           <t>4879006697</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:13</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.50570601852</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10086,10 +9844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:58</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.50553240741</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10165,10 +9921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:56</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.50550925926</v>
       </c>
       <c r="I132" t="n">
         <v>25</v>
@@ -10240,10 +9994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:38</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.50530092593</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10319,10 +10071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:23</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.50512731481</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10382,10 +10132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:23</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.50512731481</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10461,10 +10209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:22</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.50511574074</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10540,10 +10286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:14</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.50502314815</v>
       </c>
       <c r="I137" t="n">
         <v>8</v>
@@ -10619,10 +10363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.50471064815</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10690,10 +10432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:35</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.50457175926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
